--- a/ocms/src/test/resources/DownloadedFiles/Role Based Access Management (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Role Based Access Management (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t xml:space="preserve">Role Name</t>
   </si>
@@ -28,34 +28,31 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">IW Checker</t>
+    <t xml:space="preserve">IWChecker</t>
   </si>
   <si>
-    <t xml:space="preserve">EC2AMAZ-J9C4H3C\Administrator</t>
+    <t xml:space="preserve">EC2AMAZ-N8SAHHO\Administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">28/05/2021 00:42:01</t>
+    <t xml:space="preserve">19/05/2021 06:31:27</t>
   </si>
   <si>
-    <t xml:space="preserve">IW Maker</t>
+    <t xml:space="preserve">IWMaker</t>
   </si>
   <si>
-    <t xml:space="preserve">28/05/2021 00:41:44</t>
+    <t xml:space="preserve">19/05/2021 06:30:55</t>
   </si>
   <si>
-    <t xml:space="preserve">OCM Checker</t>
+    <t xml:space="preserve">OCMChecker</t>
   </si>
   <si>
-    <t xml:space="preserve">EC2AMAZ-J9C4H3C\tetherfiqa</t>
+    <t xml:space="preserve">02/06/2021 15:55:37</t>
   </si>
   <si>
-    <t xml:space="preserve">28/05/2021 00:39:28</t>
+    <t xml:space="preserve">OCMMaker</t>
   </si>
   <si>
-    <t xml:space="preserve">OCM Maker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/05/2021 13:07:37</t>
+    <t xml:space="preserve">03/06/2021 15:13:14</t>
   </si>
 </sst>
 </file>
@@ -174,21 +171,21 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Role Based Access Management (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Role Based Access Management (1).xlsx
@@ -37,6 +37,15 @@
     <t xml:space="preserve">18/03/2021 12:05:08</t>
   </si>
   <si>
+    <t xml:space="preserve">IVRChecker1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATETHERFI\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/07/2021 19:03:41</t>
+  </si>
+  <si>
     <t xml:space="preserve">IWChatChecker</t>
   </si>
   <si>
@@ -143,15 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">28/09/2020 19:53:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/07/2021 15:34:04</t>
   </si>
 </sst>
 </file>
@@ -270,128 +270,128 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>33</v>
@@ -402,51 +402,51 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>44</v>
